--- a/data/pyxl-C.xlsx
+++ b/data/pyxl-C.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$1:$B$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$B$1:$B$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,111 +424,141 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Item</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Colour</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>pen</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>brown</t>
-        </is>
-      </c>
-    </row>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>book</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>black</t>
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>302</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>plate</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>white</t>
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>504</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>400</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>chair</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>brown</t>
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>708</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>350</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>coin</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>gold</t>
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>103</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Shoes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bed</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>brown</t>
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>303</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>notebook</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>white</t>
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>302</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Watch</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>300</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B8">
+  <autoFilter ref="B1:B8">
     <filterColumn colId="1">
       <filters blank="0">
-        <filter val="brown"/>
-        <filter val="white"/>
+        <filter val="Name"/>
+        <filter val="Cost"/>
       </filters>
     </filterColumn>
-    <sortState ref="B2:B8">
-      <sortCondition descending="0" ref="B2:B8"/>
+    <sortState ref="C2:C8">
+      <sortCondition descending="0" ref="C2:C8"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
